--- a/public/import/importRoom.xlsx
+++ b/public/import/importRoom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\vip\MicroCommunityWeb\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C639F462-9F8D-482A-B061-E2F3387F241F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E7E2F4-7668-4371-9B00-D5FBCC26FAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资产信息" sheetId="1" r:id="rId1"/>
@@ -250,7 +250,7 @@
 1002 家庭成员
 1003 房屋租客
 1004 临时人员
-注意：一个房屋必须要有业主存在 才能 写家庭成员和房屋租客 和临时人员，并且业主要写在 其他之间，每一个成员都需要写一行，前面的房屋信息重复写 不能省略</t>
+注意：一个房屋必须要有业主存在 才能 写家庭成员和房屋租客 和临时人员，并且业主要写在 其他之前，每一个成员都需要写一行，前面的房屋信息重复写 不能省略</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20:U20"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/public/import/importRoom.xlsx
+++ b/public/import/importRoom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\vip\MicroCommunityWeb\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E7E2F4-7668-4371-9B00-D5FBCC26FAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAE399E-9F8F-4C17-BBA3-246691751D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资产信息" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>楼号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,22 @@
 1003 房屋租客
 1004 临时人员
 注意：一个房屋必须要有业主存在 才能 写家庭成员和房屋租客 和临时人员，并且业主要写在 其他之前，每一个成员都需要写一行，前面的房屋信息重复写 不能省略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2001 已入住
+2002 未销售
+ 2003 已交房
+ 2005 已装修
+ 2004 未入住
+ 2008 空闲
+ 2009 装修中
+注意：1、未销售表示 房屋和业主之间还没有任何关系，所以未销售状态下业主信息应该留空才对
+2、未入住 已交房 已装修 已入住 状态表示业主和房屋之间已经有关系，所以业主信息不能为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -654,21 +670,24 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -706,22 +725,25 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="1">
+        <v>2001</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>30</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>18909711443</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>1001</v>
       </c>
     </row>
@@ -741,8 +763,9 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -760,8 +783,9 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -779,8 +803,9 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
@@ -798,8 +823,9 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="1"/>
       <c r="T6" t="s">
         <v>21</v>
       </c>
@@ -823,8 +849,9 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="1"/>
       <c r="T7" t="s">
         <v>0</v>
       </c>
@@ -848,8 +875,9 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="1"/>
       <c r="T8" t="s">
         <v>1</v>
       </c>
@@ -873,8 +901,9 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="1"/>
       <c r="T9" t="s">
         <v>4</v>
       </c>
@@ -898,8 +927,9 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="1"/>
       <c r="T10" t="s">
         <v>5</v>
       </c>
@@ -923,8 +953,9 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="1"/>
       <c r="T11" t="s">
         <v>3</v>
       </c>
@@ -948,8 +979,9 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="1"/>
       <c r="T12" t="s">
         <v>16</v>
       </c>
@@ -973,8 +1005,9 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="1"/>
       <c r="T13" t="s">
         <v>6</v>
       </c>
@@ -998,8 +1031,9 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="1"/>
       <c r="T14" t="s">
         <v>7</v>
       </c>
@@ -1023,8 +1057,9 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="1"/>
       <c r="T15" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1083,9 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="1"/>
       <c r="T16" t="s">
         <v>9</v>
       </c>
@@ -1075,6 +1111,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
       <c r="T17" t="s">
         <v>10</v>
       </c>
@@ -1100,6 +1137,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
       <c r="T18" t="s">
         <v>11</v>
       </c>
@@ -1125,6 +1163,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
       <c r="T19" t="s">
         <v>12</v>
       </c>
@@ -1150,6 +1189,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
       <c r="T20" t="s">
         <v>13</v>
       </c>
@@ -1175,6 +1215,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
       <c r="T21" t="s">
         <v>14</v>
       </c>
@@ -1200,6 +1241,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
       <c r="T22" t="s">
         <v>15</v>
       </c>
@@ -1207,7 +1249,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1225,6 +1267,13 @@
       <c r="O23" s="1"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="T23" t="s">
+        <v>39</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
@@ -1244,6 +1293,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
@@ -1263,6 +1313,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
@@ -1282,6 +1333,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
@@ -1301,6 +1353,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
@@ -1320,6 +1373,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
@@ -1339,6 +1393,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
@@ -1358,6 +1413,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -1377,6 +1433,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
@@ -1396,8 +1453,9 @@
       <c r="O32" s="1"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1415,8 +1473,9 @@
       <c r="O33" s="1"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1434,8 +1493,9 @@
       <c r="O34" s="1"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1453,8 +1513,9 @@
       <c r="O35" s="1"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1472,6 +1533,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
